--- a/biology/Médecine/Liste_de_pharmacies_protégées_aux_monuments_historiques/Liste_de_pharmacies_protégées_aux_monuments_historiques.xlsx
+++ b/biology/Médecine/Liste_de_pharmacies_protégées_aux_monuments_historiques/Liste_de_pharmacies_protégées_aux_monuments_historiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_pharmacies_prot%C3%A9g%C3%A9es_aux_monuments_historiques</t>
+          <t>Liste_de_pharmacies_protégées_aux_monuments_historiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article recense les officines de pharmacie protégées au titre des monuments historiques en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_pharmacies_prot%C3%A9g%C3%A9es_aux_monuments_historiques</t>
+          <t>Liste_de_pharmacies_protégées_aux_monuments_historiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Méthodologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste prend en compte les édifices de type « pharmacie », situés en France et inscrits ou classés au titre des monuments historiques. Dans une grande partie des cas, les éléments classés sont la devanture de la pharmacie ou sa décoration intérieure.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_pharmacies_prot%C3%A9g%C3%A9es_aux_monuments_historiques</t>
+          <t>Liste_de_pharmacies_protégées_aux_monuments_historiques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La date correspond à l'année d'inscription ou de classement. Les pharmacies sont classées par département puis par commune.
 </t>
